--- a/tables/xls/it/10_Volontari Evento.xlsx
+++ b/tables/xls/it/10_Volontari Evento.xlsx
@@ -117,19 +117,19 @@
     <t>Riferimento Scheda Dati</t>
   </si>
   <si>
+    <t>Sì</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Sì</t>
-  </si>
-  <si>
     <t>EVENTI(NOME)</t>
   </si>
   <si>
     <t>Testo</t>
   </si>
   <si>
-    <t>VOLONTARI ATTESI</t>
+    <t>DB VOLONTARI</t>
   </si>
   <si>
     <t>D.V.G.</t>
@@ -755,28 +755,28 @@
         <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,28 +784,28 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -818,28 +818,28 @@
         <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -952,7 +952,7 @@
         <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -960,7 +960,7 @@
         <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -968,7 +968,7 @@
         <v>30</v>
       </c>
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:9">
